--- a/job_result_analysis/tables_s5/Speed_5_leg_1.xlsx
+++ b/job_result_analysis/tables_s5/Speed_5_leg_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>Row</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>$.85 \pm .13$</t>
+  </si>
+  <si>
+    <t>$186 \pm 47$</t>
+  </si>
+  <si>
+    <t>$.93 \pm .13$</t>
+  </si>
+  <si>
+    <t>$125 \pm 25$</t>
+  </si>
+  <si>
+    <t>$.95 \pm .12$</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -286,14 +298,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,291 +330,291 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>80</v>
       </c>
     </row>
